--- a/settingALL.xlsx
+++ b/settingALL.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
     <sheet name="cname" sheetId="2" r:id="rId2"/>
+    <sheet name="bigarea" sheetId="3" r:id="rId3"/>
+    <sheet name="cartype" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1480">
   <si>
     <t>经销商代码</t>
   </si>
@@ -4335,6 +4337,126 @@
   </si>
   <si>
     <t>新疆天汇华奥</t>
+  </si>
+  <si>
+    <t>大区名称</t>
+  </si>
+  <si>
+    <t>大区</t>
+  </si>
+  <si>
+    <t>东北区</t>
+  </si>
+  <si>
+    <t>东部区</t>
+  </si>
+  <si>
+    <t>北部区</t>
+  </si>
+  <si>
+    <t>南部区</t>
+  </si>
+  <si>
+    <t>西部区</t>
+  </si>
+  <si>
+    <t>东南区</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>分组名称</t>
+  </si>
+  <si>
+    <t>车型new</t>
+  </si>
+  <si>
+    <t>A3 SpB</t>
+  </si>
+  <si>
+    <t>A4 AV</t>
+  </si>
+  <si>
+    <t>A4L</t>
+  </si>
+  <si>
+    <t>A5 SpB</t>
+  </si>
+  <si>
+    <t>A6L</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>HPV</t>
+  </si>
+  <si>
+    <t>Q5L</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>A6 AV</t>
+  </si>
+  <si>
+    <t>Q2L</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>S+Niche</t>
+  </si>
+  <si>
+    <t>A8L</t>
+  </si>
+  <si>
+    <t>A4 AR</t>
+  </si>
+  <si>
+    <t>A6 AR</t>
+  </si>
+  <si>
+    <t>e-tron</t>
+  </si>
+  <si>
+    <t>Q5L Spb</t>
+  </si>
+  <si>
+    <t>A3 Lim</t>
+  </si>
+  <si>
+    <t>Q2 BEV</t>
+  </si>
+  <si>
+    <t>A6L PHEV</t>
+  </si>
+  <si>
+    <t>Q3 SPB</t>
+  </si>
+  <si>
+    <t>FBU Others</t>
   </si>
 </sst>
 </file>
@@ -14234,4 +14356,286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>